--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6364" uniqueCount="736">
   <si>
     <t xml:space="preserve">Step#</t>
   </si>
@@ -1674,6 +1674,15 @@
     <t xml:space="preserve">//span[contains(.,"Export to CSV")]</t>
   </si>
   <si>
+    <t xml:space="preserve">Copy downloaded file to downloads folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copyFileToDirectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spreadsheet.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">Convert to readable xlsx</t>
   </si>
   <si>
@@ -1692,37 +1701,37 @@
     <t xml:space="preserve">verifyExcelContent</t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,spreadsheetConverted.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify district on log file row 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,1,spreadsheetConverted.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify classroom on log file row 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,spreadsheetConverted.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify story  on log file row 1</t>
   </si>
   <si>
-    <t xml:space="preserve">1,3,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">1,4,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify branch ID for row 1</t>
   </si>
   <si>
-    <t xml:space="preserve">1,4,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">1,5,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify page ID for row 1</t>
   </si>
   <si>
-    <t xml:space="preserve">1,5,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">1,6,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify linked click for row 1</t>
   </si>
   <si>
-    <t xml:space="preserve">1,6,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">1,7,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Go to acknowledgement page</t>
@@ -1731,37 +1740,37 @@
     <t xml:space="preserve">Verify student name on log file row 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,1,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">2,0,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify classroom on log file row 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,2,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">2,3,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify story  on log file row 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">2,4,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify branch ID for row 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,4,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">2,5,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify page ID for row 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,5,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">2,6,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify linked click for row 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,6,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">2,7,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Go back to main story chapter 1</t>
@@ -1770,22 +1779,25 @@
     <t xml:space="preserve">Verify wrong answer chosen for question row 3</t>
   </si>
   <si>
-    <t xml:space="preserve">3,5,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">3,6,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify correct answer chosen for question - row 7</t>
   </si>
   <si>
-    <t xml:space="preserve">7,5,spreadsheetConverted.xlsx</t>
+    <t xml:space="preserve">7,6,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify open ended question - row 9</t>
   </si>
   <si>
-    <t xml:space="preserve">9,5,spreadsheetConverted.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">9,6,spreadsheetConverted.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify open ended question answer - row 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,7,spreadsheetConverted.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Verify page ID for row 12</t>
@@ -2317,7 +2329,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2409,6 +2421,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2480,7 +2500,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2545,7 +2565,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2553,15 +2581,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2574,6 +2598,17 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2590,7 +2625,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2648,7 +2683,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
@@ -3640,7 +3675,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.84"/>
@@ -3817,7 +3852,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
@@ -3832,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>10</v>
@@ -3958,7 +3993,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>21</v>
@@ -3973,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>34</v>
@@ -3987,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
@@ -4069,7 +4104,7 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
@@ -4247,7 +4282,7 @@
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -4431,7 +4466,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>21</v>
@@ -4446,7 +4481,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>43</v>
@@ -4454,7 +4489,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>27</v>
@@ -4469,7 +4504,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -4477,7 +4512,7 @@
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>103</v>
@@ -4492,7 +4527,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>34</v>
@@ -4501,7 +4536,7 @@
     <row r="19" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -4524,7 +4559,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>21</v>
@@ -4539,7 +4574,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>34</v>
@@ -4570,7 +4605,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>21</v>
@@ -4585,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>34</v>
@@ -4593,7 +4628,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>27</v>
@@ -4608,7 +4643,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>34</v>
@@ -4616,10 +4651,10 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>10</v>
@@ -4631,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>34</v>
@@ -4662,7 +4697,7 @@
     </row>
     <row r="26" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
@@ -4823,7 +4858,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>21</v>
@@ -4838,7 +4873,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>43</v>
@@ -4846,7 +4881,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>27</v>
@@ -4861,7 +4896,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
@@ -4915,7 +4950,7 @@
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>103</v>
@@ -4930,7 +4965,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
@@ -4938,7 +4973,7 @@
     </row>
     <row r="38" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>9</v>
@@ -4961,7 +4996,7 @@
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>21</v>
@@ -4976,7 +5011,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
@@ -5007,7 +5042,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>21</v>
@@ -5022,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
@@ -5030,7 +5065,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>27</v>
@@ -5045,7 +5080,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
@@ -5053,10 +5088,10 @@
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>10</v>
@@ -5068,7 +5103,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
@@ -5099,7 +5134,7 @@
     </row>
     <row r="45" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>9</v>
@@ -5260,7 +5295,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>21</v>
@@ -5275,7 +5310,7 @@
         <v>32</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>43</v>
@@ -5283,7 +5318,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>27</v>
@@ -5298,7 +5333,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>34</v>
@@ -5329,7 +5364,7 @@
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>103</v>
@@ -5344,7 +5379,7 @@
         <v>32</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>34</v>
@@ -5353,7 +5388,7 @@
     <row r="56" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="4" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>9</v>
@@ -5376,7 +5411,7 @@
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>21</v>
@@ -5391,7 +5426,7 @@
         <v>32</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>34</v>
@@ -5422,7 +5457,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>21</v>
@@ -5437,7 +5472,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>34</v>
@@ -5445,7 +5480,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>27</v>
@@ -5460,7 +5495,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>34</v>
@@ -5821,7 +5856,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
@@ -5974,7 +6009,7 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -6095,7 +6130,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>10</v>
@@ -6158,13 +6193,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>10</v>
@@ -6187,7 +6222,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>10</v>
@@ -6297,7 +6332,7 @@
     <row r="21" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -6372,7 +6407,7 @@
         <v>103</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>10</v>
@@ -6395,7 +6430,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>10</v>
@@ -6421,7 +6456,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>11</v>
@@ -6467,7 +6502,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>111</v>
@@ -6481,7 +6516,7 @@
     </row>
     <row r="29" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -6625,7 +6660,7 @@
         <v>103</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>10</v>
@@ -6648,7 +6683,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>10</v>
@@ -6674,7 +6709,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>11</v>
@@ -6894,18 +6929,18 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>630</v>
+      <c r="A1" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,7 +6948,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +6964,7 @@
         <v>309</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,7 +6972,7 @@
         <v>312</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6945,7 +6980,7 @@
         <v>311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,7 +6988,7 @@
         <v>314</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="375" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6961,7 +6996,7 @@
         <v>313</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,7 +7004,7 @@
         <v>316</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="390" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,7 +7012,7 @@
         <v>315</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,7 +7020,7 @@
         <v>318</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,7 +7028,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,7 +7036,7 @@
         <v>320</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,7 +7044,7 @@
         <v>319</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,7 +7052,7 @@
         <v>322</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,7 +7060,7 @@
         <v>321</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,7 +7068,7 @@
         <v>324</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,7 +7076,7 @@
         <v>323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,7 +7084,7 @@
         <v>326</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,7 +7092,7 @@
         <v>325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,7 +7100,7 @@
         <v>328</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,7 +7108,7 @@
         <v>327</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +7133,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.64"/>
@@ -7106,25 +7141,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7132,22 +7167,22 @@
       <c r="A2" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="B2" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7155,252 +7190,252 @@
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>657</v>
+      <c r="B3" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="C4" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>657</v>
+      <c r="G4" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>661</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>657</v>
+      <c r="B6" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>657</v>
+      <c r="B7" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>657</v>
+      <c r="F8" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>657</v>
+        <v>673</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>657</v>
+      <c r="B10" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>657</v>
+        <v>677</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B12" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>657</v>
+      <c r="E12" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7408,539 +7443,539 @@
       <c r="A14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>680</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>681</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G14" s="20"/>
+      <c r="B14" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+        <v>686</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G16" s="20"/>
+      <c r="B16" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="B17" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G18" s="20"/>
+        <v>690</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>657</v>
+        <v>705</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>657</v>
+      <c r="F25" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>657</v>
+        <v>710</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>715</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>717</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>719</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>657</v>
+        <v>610</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>721</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>657</v>
+      <c r="B33" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="B34" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>657</v>
+        <v>727</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>657</v>
+        <v>730</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +8025,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
@@ -9062,7 +9097,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.83"/>
@@ -12401,7 +12436,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
@@ -13190,7 +13225,7 @@
       <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.33"/>
@@ -14958,7 +14993,7 @@
       <selection pane="topLeft" activeCell="F199" activeCellId="0" sqref="F199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.98"/>
@@ -21411,7 +21446,7 @@
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.33"/>
@@ -23868,7 +23903,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.62"/>
@@ -26967,21 +27002,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27010,7 +27045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -27033,7 +27068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
@@ -27056,7 +27091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
@@ -27079,7 +27114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
@@ -27102,7 +27137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
@@ -27125,7 +27160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>26</v>
       </c>
@@ -27148,7 +27183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>515</v>
@@ -27172,7 +27207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="13" t="s">
         <v>516</v>
@@ -27196,7 +27231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>518</v>
       </c>
@@ -27219,7 +27254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>520</v>
       </c>
@@ -27242,7 +27277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>23</v>
       </c>
@@ -27265,7 +27300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>522</v>
       </c>
@@ -27288,7 +27323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>523</v>
       </c>
@@ -27334,7 +27369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>528</v>
       </c>
@@ -27360,7 +27395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>532</v>
       </c>
@@ -27383,7 +27418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>536</v>
       </c>
@@ -27406,7 +27441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>23</v>
       </c>
@@ -27429,7 +27464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>538</v>
       </c>
@@ -27452,7 +27487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>23</v>
       </c>
@@ -27475,17 +27510,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="0" t="s">
@@ -27498,7 +27533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>23</v>
       </c>
@@ -27521,87 +27556,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>32</v>
@@ -27613,18 +27648,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>37</v>
+      <c r="E28" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>32</v>
@@ -27636,18 +27671,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>41</v>
+      <c r="E29" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>32</v>
@@ -27659,41 +27694,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="C31" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>243</v>
+      <c r="E31" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>32</v>
@@ -27705,41 +27740,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="F32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>32</v>
@@ -27751,18 +27786,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>134</v>
+      <c r="E34" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>32</v>
@@ -27774,18 +27809,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>139</v>
+      <c r="E35" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>32</v>
@@ -27797,134 +27832,134 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="C37" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="E37" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C38" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E38" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="F39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="F40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>457</v>
-      </c>
       <c r="F41" s="0" t="s">
         <v>11</v>
       </c>
@@ -27935,19 +27970,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
         <v>578</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>579</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>32</v>
@@ -27959,22 +27993,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>580</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>581</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>160</v>
+        <v>457</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -27983,19 +28016,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="0" t="s">
         <v>582</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>583</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>32</v>
@@ -28007,19 +28040,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="0" t="s">
         <v>584</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>585</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>32</v>
@@ -28031,143 +28064,66 @@
         <v>10</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+      <c r="B46" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8"/>
+      <c r="B47" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H2 H6 E4:E6 E10:E11 E13:E17 E20 G22:H23 G25:H29">
+  <conditionalFormatting sqref="A2:H2 H5:H7 E3:E7 E10:E23 G24:H25 D5 H12:H23 G12 G19 G21:G23 E25 G27:H47 A8:H9 A26:H26">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12 E12">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H17 H20">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19 E19">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H35">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:H36">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H37">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G41">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:H9">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:H24">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>